--- a/Excel-XLSX/UN-BOT.xlsx
+++ b/Excel-XLSX/UN-BOT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="689">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>7zD5pQ</t>
+    <t>n8hFl7</t>
   </si>
   <si>
     <t>1968</t>
@@ -2083,12 +2083,6 @@
   </si>
   <si>
     <t>449</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>452</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2467,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V453"/>
+  <dimension ref="A1:V450"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -32596,7 +32590,7 @@
         <v>34</v>
       </c>
       <c r="T443" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="U443" s="1" t="s">
         <v>35</v>
@@ -32646,13 +32640,13 @@
         <v>32</v>
       </c>
       <c r="N444" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="O444" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P444" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="Q444" s="2" t="s">
         <v>34</v>
@@ -32732,7 +32726,7 @@
         <v>34</v>
       </c>
       <c r="T445" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="U445" s="1" t="s">
         <v>35</v>
@@ -32782,10 +32776,10 @@
         <v>32</v>
       </c>
       <c r="N446" s="2" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="O446" s="2" t="s">
-        <v>309</v>
+        <v>62</v>
       </c>
       <c r="P446" s="2" t="s">
         <v>34</v>
@@ -32826,16 +32820,16 @@
         <v>683</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="H447" s="1" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="J447" s="2" t="s">
         <v>29</v>
@@ -32850,7 +32844,7 @@
         <v>32</v>
       </c>
       <c r="N447" s="2" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="O447" s="2" t="s">
         <v>34</v>
@@ -32894,16 +32888,16 @@
         <v>683</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>29</v>
@@ -32918,7 +32912,7 @@
         <v>32</v>
       </c>
       <c r="N448" s="2" t="s">
-        <v>86</v>
+        <v>613</v>
       </c>
       <c r="O448" s="2" t="s">
         <v>34</v>
@@ -32962,16 +32956,16 @@
         <v>683</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="J449" s="2" t="s">
         <v>29</v>
@@ -32986,10 +32980,10 @@
         <v>32</v>
       </c>
       <c r="N449" s="2" t="s">
-        <v>595</v>
+        <v>64</v>
       </c>
       <c r="O449" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="P449" s="2" t="s">
         <v>34</v>
@@ -33030,16 +33024,16 @@
         <v>683</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>360</v>
+        <v>102</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>656</v>
+        <v>103</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>657</v>
+        <v>104</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>657</v>
+        <v>105</v>
       </c>
       <c r="J450" s="2" t="s">
         <v>29</v>
@@ -33054,7 +33048,7 @@
         <v>32</v>
       </c>
       <c r="N450" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="O450" s="2" t="s">
         <v>34</v>
@@ -33072,216 +33066,12 @@
         <v>34</v>
       </c>
       <c r="T450" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="U450" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V450" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D451" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E451" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F451" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="G451" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H451" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I451" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="J451" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K451" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L451" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M451" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O451" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T451" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U451" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V451" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D452" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E452" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F452" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G452" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I452" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="J452" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K452" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L452" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M452" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N452" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O452" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P452" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q452" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R452" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S452" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T452" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U452" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V452" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D453" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F453" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G453" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H453" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I453" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J453" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K453" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L453" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M453" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N453" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O453" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P453" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q453" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R453" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S453" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T453" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="U453" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V453" s="2" t="s">
         <v>34</v>
       </c>
     </row>
